--- a/Analysis/Plant/BKProject_Motachucnang.xlsx
+++ b/Analysis/Plant/BKProject_Motachucnang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -34,15 +34,6 @@
     <t>Tim kiếm</t>
   </si>
   <si>
-    <t>Có thể tìm kiếm theo bài viết, thành viên,…</t>
-  </si>
-  <si>
-    <t>Post, comment</t>
-  </si>
-  <si>
-    <t>Comment bằng face</t>
-  </si>
-  <si>
     <t>Vinh danh</t>
   </si>
   <si>
@@ -50,13 +41,100 @@
   </si>
   <si>
     <t>Các chức năng của hệ thống BK Project</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Đang xem xét</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các tính năng ở trạng thái đang xem xét khi chuyển thành ok hoặc hủy sẽ ở dạng Đang xem xét | OK </t>
+  </si>
+  <si>
+    <t>hoặc Đang xem xét |Hủy</t>
+  </si>
+  <si>
+    <t>Độ ưu tiên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng kí tìm nhà theo yêu cầu </t>
+  </si>
+  <si>
+    <t>Cho phép người dùng tìm kiếm nhà theo yêu cầu ( diện tích, khoảng tiền, địa điểm, số người, chung chủ, ko chung chủ ,…</t>
+  </si>
+  <si>
+    <t>Thông báo khi phát hiện bản tin đăng cho thuê nhà</t>
+  </si>
+  <si>
+    <t>Thông báo cho những người đăng kí tìm nhà đã có nhà thỏa mãn</t>
+  </si>
+  <si>
+    <t>Post, comment, xóa bài</t>
+  </si>
+  <si>
+    <t>Cho phép post bài, comment, xóa bài đã post hoặc comment</t>
+  </si>
+  <si>
+    <t>Lưu tin</t>
+  </si>
+  <si>
+    <t>Cho phép lưu bản tin đã xem</t>
+  </si>
+  <si>
+    <t>Có thể tìm kiếm theo bài viết, thành viên, tìm kiếm theo các lựa chọn (tiền, địa điểm, diện tích,…)</t>
+  </si>
+  <si>
+    <t>Sắp xếp</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng sắp xếp các bản tin theo loại tin (cho thuê, tìm nhà thuê, thuê nguyên căn,..), giá, địa điểm, diện tích, đối tượng ( nam, nữ)</t>
+  </si>
+  <si>
+    <t>Gợi ý</t>
+  </si>
+  <si>
+    <t>Dựa vào các dữ liệu cuar những phiên giao dịch trước, dự đoán xem các đối tượng sẽ thuê phòng ở chỗ nào, sau đó gợi ý cho người dùng về ( các khu vực nhà giá rẻ, khu vực diện tích rộng, khu vực gần xe bus, khu vực đông, ít dân cư, gần chợ,…). Tuy nhiên đang có vẻ trùng với tìm kiếm ( giải pháp có thể là xây dựng tìm kiếm thông minh kiêm gợi ý)</t>
+  </si>
+  <si>
+    <t>Bộ lọc</t>
+  </si>
+  <si>
+    <t>Lọc những tin rác, tin của cò mồi</t>
+  </si>
+  <si>
+    <t>Đánh dấu spam, đánh dấu black list</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng có thể đánh dấu 1 tin là của cò mồi, spam, hoặc lừa đảo ( khi đã đánh dấu, thành viên đó sẽ bị nâng mã bảo mật lên cấp 2, nếu bị đánh dấu nhiều, block nick, bôi đen nick, (vẫn giữ lại toàn bộ bài viết) và đưa vào mục black list</t>
+  </si>
+  <si>
+    <t>Black list</t>
+  </si>
+  <si>
+    <t>Danh sách nick bị block do lừa đảo, ko uy tín</t>
+  </si>
+  <si>
+    <t>Nap tiền duy trì tin</t>
+  </si>
+  <si>
+    <t>Khi ở trạng thái free, bản tin có thể được thông báo đến các đối tượng cần tìm nhà trong khoảng x ngày, nếu nạp tiền thì sẽ tăng khoảng thời gian, đồng thời tin đó được hiển thị nhiều hơn trên trang chủ, hoặc ưu tiên khi tìm kiếm</t>
+  </si>
+  <si>
+    <t>Gop ý</t>
+  </si>
+  <si>
+    <t>Người dùng có thể góp ý với admin về hệ thống</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +142,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -137,28 +254,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,214 +632,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="28.5546875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="7.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H1" s="10" t="s">
+    <row r="1" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="Q5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="s">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
         <v>2</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="28">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="7" t="s">
+      <c r="B8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
         <v>4</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="B9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="1:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7" t="s">
+      <c r="B10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7" t="s">
+      <c r="B12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -678,16 +918,26 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -695,16 +945,26 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
+      <c r="P14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -712,16 +972,26 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="9"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -729,16 +999,26 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="6"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -746,16 +1026,26 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -763,19 +1053,54 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="9"/>
+      <c r="P18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="H18:O18"/>
-    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H19:O19"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="H6:O6"/>
     <mergeCell ref="H7:O7"/>
     <mergeCell ref="H8:O8"/>
@@ -783,21 +1108,18 @@
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
     <mergeCell ref="H12:O12"/>
-    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H13:O13"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis/Plant/BKProject_Motachucnang.xlsx
+++ b/Analysis/Plant/BKProject_Motachucnang.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Giai đoạn 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Giai đoạn 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -40,9 +41,6 @@
     <t>Những thành viên tích cực sẽ có icon hoặc nick màu khác</t>
   </si>
   <si>
-    <t>Các chức năng của hệ thống BK Project</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -128,6 +126,15 @@
   </si>
   <si>
     <t>Người dùng có thể góp ý với admin về hệ thống</t>
+  </si>
+  <si>
+    <t>Các chức năng của hệ thống Hostel Project GĐ2</t>
+  </si>
+  <si>
+    <t>Các chức năng của hệ thống Hostel Project GĐ1</t>
+  </si>
+  <si>
+    <t>Xây dựng thành chợ đồ cũ ( dọn nhà )</t>
   </si>
 </sst>
 </file>
@@ -254,12 +261,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,67 +271,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,16 +641,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="28.5546875" style="1" customWidth="1"/>
+    <col min="1" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="4.33203125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="41" style="1" customWidth="1"/>
     <col min="12" max="13" width="8.88671875" style="1"/>
     <col min="14" max="14" width="7.88671875" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
@@ -651,475 +662,865 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14" t="s">
+      <c r="B8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="10" t="s">
+      <c r="B9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>13</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
-        <v>1</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
-        <v>2</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
-        <v>3</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>4</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="17"/>
-    </row>
-    <row r="10" spans="1:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>6</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>7</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7" t="s">
+      <c r="B21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5">
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="H8:O8"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
     <mergeCell ref="H12:O12"/>
     <mergeCell ref="H13:O13"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="4.33203125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="41" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="7.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="31"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="31"/>
+    </row>
+    <row r="12" spans="1:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="31"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="31"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="31"/>
+    </row>
+    <row r="15" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="32"/>
+    </row>
+    <row r="16" spans="1:17" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="32"/>
+    </row>
+    <row r="17" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" spans="1:17" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:O8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>